--- a/ejemplos/modelos_arbol_individual-masas_mixtas/PnigraQilex_IFN_3_parcelas.xlsx
+++ b/ejemplos/modelos_arbol_individual-masas_mixtas/PnigraQilex_IFN_3_parcelas.xlsx
@@ -352,7 +352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -371,70 +371,75 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Provincia</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>ID_sp1</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>ID_sp2</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Anho</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Edad</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Densidad</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Area_basimetrica</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Altura_dominante</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Longitud</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Latitud</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Martonne_2001_2020</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Martonne_2021_2040</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Martonne_2041_2060</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Martonne_2061_2080</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Martonne_2081_2100</t>
         </is>
@@ -452,39 +457,42 @@
         </is>
       </c>
       <c r="C2">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D2">
+        <v>25</v>
+      </c>
+      <c r="E2">
         <v>45</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>438.5602876310005</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>5.796322222222222</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>6.475743559207261</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>0.01736952705549152</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>40.7016876211683</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>25.21742407205126</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>24.55066907161642</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>23.29621377444501</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>22.22463388594778</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>20.9248147074135</v>
       </c>
     </row>
@@ -500,39 +508,42 @@
         </is>
       </c>
       <c r="C3">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D3">
+        <v>25</v>
+      </c>
+      <c r="E3">
         <v>45</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>328.9202157232504</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>5.262175</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>5.056181665787421</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>0.08829621053916434</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>40.70349991653489</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>27.22511524209229</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>26.38132293654857</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>25.05569190939331</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>23.89839857788766</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>22.54715293709766</v>
       </c>
     </row>
@@ -548,39 +559,42 @@
         </is>
       </c>
       <c r="C4">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D4">
+        <v>25</v>
+      </c>
+      <c r="E4">
         <v>45</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>389.0454164468553</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>14.68152569444445</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>12.63661977236758</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>0.111939862788065</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>40.70409434528089</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>27.22511524209229</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>24.66528385928614</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>23.47252754427474</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>22.43030735338279</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>21.10994765495856</v>
       </c>
     </row>
